--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.6462973338003609</v>
+        <v>-0.6850713764914885</v>
       </c>
       <c r="D2">
-        <v>0.5181751420308309</v>
+        <v>0.5004539028202741</v>
       </c>
       <c r="E2">
         <v>2.94287419976592</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.7387718401045419</v>
+        <v>-0.6085225578942852</v>
       </c>
       <c r="D3">
-        <v>0.4601488115632288</v>
+        <v>0.549072987495677</v>
       </c>
       <c r="E3">
         <v>2.94287419976592</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2591066332630006</v>
+        <v>0.275505423592347</v>
       </c>
       <c r="D4">
-        <v>0.7955847294748799</v>
+        <v>0.7854991039923827</v>
       </c>
       <c r="E4">
         <v>2.94287419976592</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.630701850276141</v>
+        <v>-1.578590196599814</v>
       </c>
       <c r="D5">
-        <v>0.1031407996644691</v>
+        <v>0.12870182924078</v>
       </c>
       <c r="E5">
         <v>2.94287419976592</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.04245214046337122</v>
+        <v>0.04517737866197612</v>
       </c>
       <c r="D6">
-        <v>0.9661433113308657</v>
+        <v>0.9643734966714357</v>
       </c>
       <c r="E6">
         <v>3.345654058658167</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.8778982054916817</v>
+        <v>1.039221045708155</v>
       </c>
       <c r="D7">
-        <v>0.3801245674774876</v>
+        <v>0.3099893042654869</v>
       </c>
       <c r="E7">
         <v>3.345654058658167</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.8292630498657044</v>
+        <v>-0.9396035856094578</v>
       </c>
       <c r="D8">
-        <v>0.4070734512083027</v>
+        <v>0.3576236635296375</v>
       </c>
       <c r="E8">
         <v>3.345654058658167</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.8415739151558265</v>
+        <v>0.7196923389574351</v>
       </c>
       <c r="D9">
-        <v>0.4001463407282291</v>
+        <v>0.4792909589912662</v>
       </c>
       <c r="E9">
         <v>3.315667279199649</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.933681948006957</v>
+        <v>-0.9190732058929473</v>
       </c>
       <c r="D10">
-        <v>0.3506022302811929</v>
+        <v>0.3680249165758775</v>
       </c>
       <c r="E10">
         <v>3.315667279199649</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.786267811181139</v>
+        <v>-1.572673085304842</v>
       </c>
       <c r="D11">
-        <v>0.07423630061064235</v>
+        <v>0.1300667684929449</v>
       </c>
       <c r="E11">
         <v>2.820332432062972</v>
